--- a/src/testData/archivosExcel/ManifestDeclareRequest.xlsx
+++ b/src/testData/archivosExcel/ManifestDeclareRequest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="132">
   <si>
     <t>idTestCase</t>
   </si>
@@ -178,234 +178,228 @@
     <t>MA11</t>
   </si>
   <si>
-    <t>[{"field":"parcelList","message":"size must be between 1 and 50000"}]</t>
+    <t>[{"field":"parcelList[1].wayBillNo","message":"wayBillNo es obligatorio"}]</t>
   </si>
   <si>
     <t>MA12</t>
   </si>
   <si>
-    <t>[{"field":"parcelList[0].wayBillNo","message":"wayBillNo es obligatorio"}]</t>
+    <t>PE08</t>
+  </si>
+  <si>
+    <t>[{"field":"declareCountry","message":"declareCountry debe ser un código ISO-2 (2 letras mayúsculas)"}]</t>
   </si>
   <si>
     <t>MA13</t>
   </si>
   <si>
-    <t>PE08</t>
-  </si>
-  <si>
-    <t>[{"field":"declareCountry","message":"declareCountry debe ser un código ISO-2 (2 letras mayúsculas)"}]</t>
+    <t>[{"field":"declareCountry","message":"declareCountry debe ser un código ISO-2 (2 letras mayúsculas)"},{"field":"declareCountry","message":"declareCountry es obligatorio"}]</t>
   </si>
   <si>
     <t>MA14</t>
   </si>
   <si>
-    <t>[{"field":"declareCountry","message":"declareCountry debe ser un código ISO-2 (2 letras mayúsculas)"},{"field":"declareCountry","message":"declareCountry es obligatorio"}]</t>
+    <t>1500.50031</t>
+  </si>
+  <si>
+    <t>[{"field":"groosWeight","message":"grossWeight inválido (ej. 12.345)"}]</t>
   </si>
   <si>
     <t>MA15</t>
   </si>
   <si>
-    <t>1500.50031</t>
-  </si>
-  <si>
-    <t>[{"field":"groosWeight","message":"grossWeight inválido (ej. 12.345)"}]</t>
+    <t>[{"field":"groosWeight","message":"grossWeight es obligatorio"},{"field":"groosWeight","message":"grossWeight inválido (ej. 12.345)"}]</t>
   </si>
   <si>
     <t>MA16</t>
   </si>
   <si>
-    <t>[{"field":"groosWeight","message":"grossWeight es obligatorio"},{"field":"groosWeight","message":"grossWeight inválido (ej. 12.345)"}]</t>
+    <t>MAWB123456782506MAWB123456782506MAWB123456782506MAWB1234567825065</t>
+  </si>
+  <si>
+    <t>[{"field":"masterAirWayBill","message":"masterAirWayBill: máximo 64 caracteres"}]</t>
   </si>
   <si>
     <t>MA17</t>
   </si>
   <si>
-    <t>MAWB123456782506MAWB123456782506MAWB123456782506MAWB1234567825065</t>
-  </si>
-  <si>
-    <t>[{"field":"masterAirWayBill","message":"masterAirWayBill: máximo 64 caracteres"}]</t>
+    <t>MAWB123456782506MAWB123456782506MAWB123456782506MAWB123456782506</t>
+  </si>
+  <si>
+    <t>WBN26052507</t>
+  </si>
+  <si>
+    <t>WBN26052508</t>
+  </si>
+  <si>
+    <t>WBN26052509</t>
   </si>
   <si>
     <t>MA18</t>
   </si>
   <si>
-    <t>MAWB123456782506MAWB123456782506MAWB123456782506MAWB123456782506</t>
-  </si>
-  <si>
-    <t>WBN26052507</t>
-  </si>
-  <si>
-    <t>WBN26052508</t>
-  </si>
-  <si>
-    <t>WBN26052509</t>
+    <t>MAWB1234567819</t>
+  </si>
+  <si>
+    <t>AV1234AV1234AV12</t>
+  </si>
+  <si>
+    <t>WBN26052510</t>
+  </si>
+  <si>
+    <t>WBN26052511</t>
+  </si>
+  <si>
+    <t>WBN26052512</t>
   </si>
   <si>
     <t>MA19</t>
   </si>
   <si>
-    <t>MAWB1234567819</t>
-  </si>
-  <si>
-    <t>AV1234AV1234AV12</t>
-  </si>
-  <si>
-    <t>WBN26052510</t>
-  </si>
-  <si>
-    <t>WBN26052511</t>
-  </si>
-  <si>
-    <t>WBN26052512</t>
+    <t>AV1234AV1234AV127</t>
+  </si>
+  <si>
+    <t>[{"field":"flightNumber","message":"flightNumber: máximo 16 caracteres"}]</t>
   </si>
   <si>
     <t>MA20</t>
   </si>
   <si>
-    <t>AV1234AV1234AV127</t>
-  </si>
-  <si>
-    <t>[{"field":"flightNumber","message":"flightNumber: máximo 16 caracteres"}]</t>
+    <t>2025-10-01T08:00Z2025-10-01T08:00Z</t>
+  </si>
+  <si>
+    <t>[{"field":"etd","message":"etd: máximo 32 caracteres"}]</t>
   </si>
   <si>
     <t>MA21</t>
   </si>
   <si>
-    <t>2025-10-01T08:00Z2025-10-01T08:00Z</t>
-  </si>
-  <si>
-    <t>[{"field":"etd","message":"etd: máximo 32 caracteres"}]</t>
+    <t>MAWB1234567894</t>
+  </si>
+  <si>
+    <t>2025-10-01T08:00Z2025-10-01T08:0</t>
+  </si>
+  <si>
+    <t>WBN26052513</t>
+  </si>
+  <si>
+    <t>WBN26052514</t>
+  </si>
+  <si>
+    <t>WBN26052515</t>
   </si>
   <si>
     <t>MA22</t>
   </si>
   <si>
-    <t>MAWB1234567894</t>
-  </si>
-  <si>
-    <t>2025-10-01T08:00Z2025-10-01T08:0</t>
-  </si>
-  <si>
-    <t>WBN26052513</t>
-  </si>
-  <si>
-    <t>WBN26052514</t>
-  </si>
-  <si>
-    <t>WBN26052515</t>
+    <t>2025-10-02T14:30Z2025-10-02T14:30Z</t>
+  </si>
+  <si>
+    <t>[{"field":"eta","message":"eta: máximo 32 caracteres"}]</t>
   </si>
   <si>
     <t>MA23</t>
   </si>
   <si>
-    <t>2025-10-02T14:30Z2025-10-02T14:30Z</t>
-  </si>
-  <si>
-    <t>[{"field":"eta","message":"eta: máximo 32 caracteres"}]</t>
+    <t>MAWB12345678915</t>
+  </si>
+  <si>
+    <t>2025-10-02T14:30Z2025-10-02T14:3</t>
+  </si>
+  <si>
+    <t>WBN26052516</t>
+  </si>
+  <si>
+    <t>WBN26052517</t>
+  </si>
+  <si>
+    <t>WBN26052518</t>
   </si>
   <si>
     <t>MA24</t>
   </si>
   <si>
-    <t>MAWB12345678915</t>
-  </si>
-  <si>
-    <t>2025-10-02T14:30Z2025-10-02T14:3</t>
-  </si>
-  <si>
-    <t>WBN26052516</t>
-  </si>
-  <si>
-    <t>WBN26052517</t>
-  </si>
-  <si>
-    <t>WBN26052518</t>
+    <t>LIM123009</t>
+  </si>
+  <si>
+    <t>[{"field":"fromPortCode","message":"fromPortCode: máximo 8 caracteres" }]</t>
   </si>
   <si>
     <t>MA25</t>
   </si>
   <si>
-    <t>LIM123009</t>
-  </si>
-  <si>
-    <t>[{"field":"fromPortCode","message":"fromPortCode: máximo 8 caracteres" }]</t>
+    <t>MAWB12345678916</t>
+  </si>
+  <si>
+    <t>LIM12300</t>
+  </si>
+  <si>
+    <t>WBN26052519</t>
+  </si>
+  <si>
+    <t>WBN26052520</t>
+  </si>
+  <si>
+    <t>WBN26052521</t>
   </si>
   <si>
     <t>MA26</t>
   </si>
   <si>
-    <t>MAWB12345678916</t>
-  </si>
-  <si>
-    <t>LIM12300</t>
-  </si>
-  <si>
-    <t>WBN26052519</t>
-  </si>
-  <si>
-    <t>WBN26052520</t>
-  </si>
-  <si>
-    <t>WBN26052521</t>
+    <t>MIA456789</t>
+  </si>
+  <si>
+    <t>[{"field":"toPortCode","message":"toPortCode: máximo 8 caracteres"}]</t>
   </si>
   <si>
     <t>MA27</t>
   </si>
   <si>
-    <t>MIA456789</t>
-  </si>
-  <si>
-    <t>[{"field":"toPortCode","message":"toPortCode: máximo 8 caracteres"}]</t>
+    <t>MAWB12345678917</t>
+  </si>
+  <si>
+    <t>MIA45678</t>
+  </si>
+  <si>
+    <t>WBN26052522</t>
+  </si>
+  <si>
+    <t>WBN26052523</t>
+  </si>
+  <si>
+    <t>WBN26052524</t>
   </si>
   <si>
     <t>MA28</t>
   </si>
   <si>
-    <t>MAWB12345678917</t>
-  </si>
-  <si>
-    <t>MIA45678</t>
-  </si>
-  <si>
-    <t>WBN26052522</t>
-  </si>
-  <si>
-    <t>WBN26052523</t>
-  </si>
-  <si>
-    <t>WBN26052524</t>
+    <t>[{"field":"virTotalCount","message":"virTotalCount debe ser numérico de hasta 8 dígitos"}]</t>
   </si>
   <si>
     <t>MA29</t>
   </si>
   <si>
-    <t>[{"field":"virTotalCount","message":"virTotalCount debe ser numérico de hasta 8 dígitos"}]</t>
+    <t>200.56</t>
   </si>
   <si>
     <t>MA30</t>
   </si>
   <si>
-    <t>200.56</t>
+    <t>ochenta y ocho</t>
   </si>
   <si>
     <t>MA31</t>
   </si>
   <si>
-    <t>ochenta y ocho</t>
+    <t>WBN260525WBN260525WBN260525123455</t>
+  </si>
+  <si>
+    <t>[{"field":"parcelList[0].wayBillNo","message":"wayBillNo: máximo 32 caracteres"}]</t>
   </si>
   <si>
     <t>MA32</t>
   </si>
   <si>
-    <t>WBN260525WBN260525WBN260525123455</t>
-  </si>
-  <si>
-    <t>[{"field":"parcelList[0].wayBillNo","message":"wayBillNo: máximo 32 caracteres"}]</t>
-  </si>
-  <si>
-    <t>MA33</t>
-  </si>
-  <si>
     <t>noexiste1234</t>
   </si>
   <si>
@@ -413,9 +407,6 @@
   </si>
   <si>
     <t>noexiste1236</t>
-  </si>
-  <si>
-    <t>{"status": "falta respuesta","message": "por el momento así para ejecutar"}</t>
   </si>
 </sst>
 </file>
@@ -1236,13 +1227,10 @@
         <v>32</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O12" s="4">
         <v>400.0</v>
@@ -1262,7 +1250,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>20</v>
@@ -1278,6 +1266,9 @@
       </c>
       <c r="K13" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>34</v>
@@ -1289,21 +1280,18 @@
         <v>400.0</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>20</v>
@@ -1346,6 +1334,9 @@
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1356,7 +1347,7 @@
         <v>32</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>32</v>
@@ -1374,12 +1365,12 @@
         <v>400.0</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -1399,9 +1390,7 @@
       <c r="I16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="4" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1415,7 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1443,7 +1432,9 @@
       <c r="I17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="K17" s="4" t="s">
         <v>32</v>
       </c>
@@ -1460,15 +1451,15 @@
         <v>400.0</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1492,30 +1483,30 @@
         <v>32</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="O18" s="4">
-        <v>400.0</v>
+        <v>201.0</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1536,13 +1527,13 @@
         <v>32</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O19" s="4">
         <v>201.0</v>
@@ -1553,13 +1544,13 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>19</v>
@@ -1580,36 +1571,36 @@
         <v>32</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O20" s="4">
-        <v>201.0</v>
+        <v>400.0</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>21</v>
@@ -1636,15 +1627,15 @@
         <v>400.0</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
@@ -1653,7 +1644,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>21</v>
@@ -1668,27 +1659,27 @@
         <v>32</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="O22" s="4">
-        <v>400.0</v>
+        <v>201.0</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
@@ -1697,10 +1688,10 @@
         <v>19</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>32</v>
@@ -1712,27 +1703,27 @@
         <v>32</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="O23" s="4">
-        <v>201.0</v>
+        <v>400.0</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -1744,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>32</v>
@@ -1756,27 +1747,27 @@
         <v>32</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="O24" s="4">
-        <v>400.0</v>
+        <v>201.0</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
@@ -1788,39 +1779,45 @@
         <v>20</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="4">
+        <v>200.0</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="O25" s="4">
-        <v>201.0</v>
+        <v>400.0</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>18</v>
@@ -1835,7 +1832,7 @@
         <v>21</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>23</v>
@@ -1850,27 +1847,27 @@
         <v>25</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="O26" s="4">
-        <v>400.0</v>
+        <v>201.0</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
@@ -1885,10 +1882,10 @@
         <v>21</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="I27" s="4">
         <v>200.0</v>
@@ -1900,27 +1897,27 @@
         <v>25</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="O27" s="4">
-        <v>201.0</v>
+        <v>400.0</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
@@ -1938,7 +1935,7 @@
         <v>22</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I28" s="4">
         <v>200.0</v>
@@ -1950,27 +1947,27 @@
         <v>25</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="O28" s="4">
-        <v>400.0</v>
+        <v>201.0</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>18</v>
@@ -1988,10 +1985,10 @@
         <v>22</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I29" s="4">
-        <v>200.0</v>
+        <v>2.00456789E8</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>24</v>
@@ -2000,19 +1997,19 @@
         <v>25</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="N29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="4">
+        <v>400.0</v>
+      </c>
+      <c r="P29" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="O29" s="4">
-        <v>201.0</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -2040,8 +2037,8 @@
       <c r="H30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="4">
-        <v>2.00456789E8</v>
+      <c r="I30" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>24</v>
@@ -2062,7 +2059,7 @@
         <v>400.0</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -2084,12 +2081,6 @@
       <c r="F31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="I31" s="4" t="s">
         <v>124</v>
       </c>
@@ -2097,22 +2088,22 @@
         <v>24</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="O31" s="4">
         <v>400.0</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -2134,119 +2125,75 @@
       <c r="F32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="4">
+        <v>200.0</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O32" s="4">
         <v>400.0</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O33" s="4">
-        <v>400.0</v>
-      </c>
-      <c r="P33" s="6" t="s">
+      <c r="C33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="M33" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" s="7" t="s">
+      <c r="N33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M34" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="O34" s="7">
-        <v>400.0</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>134</v>
+      <c r="O33" s="7">
+        <v>201.0</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
